--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,78 +40,78 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>black</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -136,6 +136,9 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -151,49 +154,40 @@
     <t>love</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -568,7 +562,7 @@
         <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -676,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
@@ -726,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9696969696969697</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9038461538461539</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +844,13 @@
         <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +894,13 @@
         <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>0.6933333333333334</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L9">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1026,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,13 +1044,13 @@
         <v>43</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>0.4242424242424243</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L13">
         <v>14</v>
@@ -1168,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
@@ -1226,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3541666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>0.2439024390243902</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2372881355932203</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6086956521739131</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2258652094717669</v>
+        <v>0.2331511839708561</v>
       </c>
       <c r="L18">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M18">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5869565217391305</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1851851851851852</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.574468085106383</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K20">
-        <v>0.1639344262295082</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -1518,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,13 +1544,13 @@
         <v>53</v>
       </c>
       <c r="K21">
-        <v>0.1368421052631579</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5416666666666666</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K22">
-        <v>0.1267605633802817</v>
+        <v>0.04259259259259259</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>62</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1620,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>0.02932551319648094</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1668,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>331</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1676,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1694,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K24">
-        <v>0.02304737516005122</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1718,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>763</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1726,13 +1720,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4358974358974359</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1744,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K25">
-        <v>0.02108433734939759</v>
+        <v>0.01664532650448143</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>650</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1770,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1794,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K26">
-        <v>0.01851851851851852</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1818,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>530</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1826,13 +1820,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1666666666666667</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1844,31 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>65</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>605</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1876,49 +1846,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04347826086956522</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>286</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.01382488479262673</v>
-      </c>
-      <c r="L28">
-        <v>24</v>
-      </c>
-      <c r="M28">
-        <v>24</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>1712</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
